--- a/IIT_Budget_Draft_18-0266_v5.xlsx
+++ b/IIT_Budget_Draft_18-0266_v5.xlsx
@@ -2049,6 +2049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q137"/>
   <sheetViews>
@@ -6033,7 +6034,7 @@
     <hyperlink ref="A66" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" fitToHeight="2" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="52" fitToHeight="2" orientation="landscape" copies="3" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;14Internal &amp;A &amp;C&amp;"-,Bold"&amp;14Office of Sponsored Research &amp; Programs&amp;11
 (312) 567-3035 • osrp@iit.edu&amp;R&amp;G</oddHeader>
